--- a/unittest_demo_one/data/test_user_data.xlsx
+++ b/unittest_demo_one/data/test_user_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/Desktop/test/unittest_demo_one/test/case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/Desktop/test/unittest_demo/unittest_demo_one/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B06A14-448F-2048-B1BB-438C25C044A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C15A50-D55E-8741-B74F-816C5E243762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27640" windowHeight="17040" xr2:uid="{3C7E86AD-E324-0D42-BDDC-1E3396864650}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="27640" windowHeight="17040" xr2:uid="{3C7E86AD-E324-0D42-BDDC-1E3396864650}"/>
   </bookViews>
   <sheets>
     <sheet name="TestUserLogin" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>{"cood":"10002","data":null,"msg":"请填写姓名和密码"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"cood":"10001","data":null,"msg":"请求类型错误",}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,7 +125,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"code":"10003","data":null,"msg":"姓名或密码错误",}</t>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"10003","data":null,"msg":"姓名或密码错误"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cood":"10001","data":null,"msg":"请求类型错误"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,21 +550,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10494BB3-AA25-F643-8EE7-3EF589EEFCF9}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="48.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="41.5" customWidth="1"/>
+    <col min="6" max="6" width="42.1640625" customWidth="1"/>
+    <col min="7" max="7" width="48.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,13 +578,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -576,13 +601,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -592,14 +623,17 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -609,14 +643,17 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -626,11 +663,14 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/unittest_demo_one/data/test_user_data.xlsx
+++ b/unittest_demo_one/data/test_user_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/Desktop/test/unittest_demo/unittest_demo_one/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C15A50-D55E-8741-B74F-816C5E243762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC255AB-E4F6-A045-B56B-41EBB6D77BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27640" windowHeight="17040" xr2:uid="{3C7E86AD-E324-0D42-BDDC-1E3396864650}"/>
   </bookViews>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t>expect_res</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_type_error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,6 +142,10 @@
   </si>
   <si>
     <t>{"cood":"10001","data":null,"msg":"请求类型错误"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_type_erro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10494BB3-AA25-F643-8EE7-3EF589EEFCF9}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -592,85 +592,85 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/unittest_demo_one/data/test_user_data.xlsx
+++ b/unittest_demo_one/data/test_user_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/Desktop/test/unittest_demo/unittest_demo_one/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC255AB-E4F6-A045-B56B-41EBB6D77BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E7CFCB-2F1B-834D-A7B5-5A61F414A32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27640" windowHeight="17040" xr2:uid="{3C7E86AD-E324-0D42-BDDC-1E3396864650}"/>
   </bookViews>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>expect_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_type_error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,10 +146,6 @@
   </si>
   <si>
     <t>{"cood":"10001","data":null,"msg":"请求类型错误"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_type_erro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +553,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -592,85 +592,85 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
